--- a/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/Winner_determination/dataset_04/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/Winner_determination/dataset_04/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=2(for_10_workers_and_less)\Winner_determination\dataset_04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EA748-B330-4555-8A7B-E1F3E337F3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_Winner_dataset_04_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,16 +734,16 @@
         <v>102.8964177549194</v>
       </c>
       <c r="H2">
-        <v>20.76108736306248</v>
+        <v>20.761087363062479</v>
       </c>
       <c r="I2">
-        <v>82.13533039185695</v>
+        <v>82.135330391856954</v>
       </c>
       <c r="J2">
         <v>0.2</v>
       </c>
       <c r="K2">
-        <v>82.13533039185697</v>
+        <v>82.135330391856968</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -663,46 +752,46 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O2">
         <v>102.8964177549194</v>
       </c>
       <c r="P2">
-        <v>20.76108736306248</v>
+        <v>20.761087363062479</v>
       </c>
       <c r="Q2">
         <v>1.600642394633796</v>
       </c>
       <c r="R2">
-        <v>48.90425379984317</v>
+        <v>48.904253799843168</v>
       </c>
       <c r="S2">
-        <v>4.95621524805053</v>
+        <v>4.9562152480505297</v>
       </c>
       <c r="T2">
-        <v>4.95621524805053</v>
+        <v>4.9562152480505297</v>
       </c>
       <c r="U2">
         <v>1.600642394633796</v>
       </c>
       <c r="V2">
-        <v>48.90425379984317</v>
+        <v>48.904253799843168</v>
       </c>
       <c r="W2">
-        <v>180.2623325114704</v>
+        <v>180.26233251147039</v>
       </c>
       <c r="X2">
-        <v>262.3976629033274</v>
+        <v>262.39766290332739</v>
       </c>
       <c r="Y2">
-        <v>180.2623325114704</v>
+        <v>180.26233251147039</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -728,13 +817,13 @@
         <v>21.1948140457812</v>
       </c>
       <c r="I3">
-        <v>87.20229923110051</v>
+        <v>87.202299231100511</v>
       </c>
       <c r="J3">
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>87.20229923110053</v>
+        <v>87.202299231100525</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -743,7 +832,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O3">
         <v>108.3971132768817</v>
@@ -752,22 +841,22 @@
         <v>21.1948140457812</v>
       </c>
       <c r="Q3">
-        <v>1.632044927092407</v>
+        <v>1.6320449270924069</v>
       </c>
       <c r="R3">
-        <v>52.61141048701641</v>
+        <v>52.611410487016407</v>
       </c>
       <c r="S3">
-        <v>5.114322449007662</v>
+        <v>5.1143224490076618</v>
       </c>
       <c r="T3">
-        <v>5.114322449007662</v>
+        <v>5.1143224490076618</v>
       </c>
       <c r="U3">
-        <v>1.632044927092407</v>
+        <v>1.6320449270924069</v>
       </c>
       <c r="V3">
-        <v>52.61141048701641</v>
+        <v>52.611410487016407</v>
       </c>
       <c r="W3">
         <v>113.3920215280434</v>
@@ -782,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>69.94778938254748</v>
+        <v>69.947789382547484</v>
       </c>
       <c r="H4">
-        <v>16.36247447707103</v>
+        <v>16.362474477071029</v>
       </c>
       <c r="I4">
-        <v>53.58531490547646</v>
+        <v>53.585314905476459</v>
       </c>
       <c r="J4">
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>53.58531490547647</v>
+        <v>53.585314905476473</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -823,46 +912,46 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O4">
-        <v>69.94778938254748</v>
+        <v>69.947789382547484</v>
       </c>
       <c r="P4">
-        <v>16.36247447707103</v>
+        <v>16.362474477071029</v>
       </c>
       <c r="Q4">
         <v>1.452758526397413</v>
       </c>
       <c r="R4">
-        <v>29.81459059595148</v>
+        <v>29.814590595951479</v>
       </c>
       <c r="S4">
-        <v>4.274890664035341</v>
+        <v>4.2748906640353406</v>
       </c>
       <c r="T4">
-        <v>4.274890664035341</v>
+        <v>4.2748906640353406</v>
       </c>
       <c r="U4">
         <v>1.452758526397413</v>
       </c>
       <c r="V4">
-        <v>29.81459059595148</v>
+        <v>29.814590595951479</v>
       </c>
       <c r="W4">
-        <v>146.150671817293</v>
+        <v>146.15067181729299</v>
       </c>
       <c r="X4">
-        <v>199.7359867227694</v>
+        <v>199.73598672276941</v>
       </c>
       <c r="Y4">
-        <v>146.150671817293</v>
+        <v>146.15067181729299</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>71.21070823866289</v>
+        <v>71.210708238662889</v>
       </c>
       <c r="H5">
-        <v>18.37584202527784</v>
+        <v>18.375842025277841</v>
       </c>
       <c r="I5">
-        <v>52.83486621338505</v>
+        <v>52.834866213385048</v>
       </c>
       <c r="J5">
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>52.83486621338506</v>
+        <v>52.834866213385062</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -903,19 +992,19 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O5">
-        <v>71.21070823866289</v>
+        <v>71.210708238662889</v>
       </c>
       <c r="P5">
-        <v>18.37584202527784</v>
+        <v>18.375842025277841</v>
       </c>
       <c r="Q5">
-        <v>1.354606335166021</v>
+        <v>1.3546063351660209</v>
       </c>
       <c r="R5">
-        <v>27.94283419193368</v>
+        <v>27.942834191933681</v>
       </c>
       <c r="S5">
         <v>3.875235112530099</v>
@@ -924,16 +1013,16 @@
         <v>3.875235112530099</v>
       </c>
       <c r="U5">
-        <v>1.354606335166021</v>
+        <v>1.3546063351660209</v>
       </c>
       <c r="V5">
-        <v>27.94283419193368</v>
+        <v>27.942834191933681</v>
       </c>
       <c r="W5">
         <v>118.7945658594804</v>
       </c>
       <c r="X5">
-        <v>171.6294320728655</v>
+        <v>171.62943207286551</v>
       </c>
       <c r="Y5">
         <v>118.7945658594804</v>
@@ -942,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>112.3187807082082</v>
+        <v>112.31878070820819</v>
       </c>
       <c r="H6">
-        <v>21.49120746305604</v>
+        <v>21.491207463056039</v>
       </c>
       <c r="I6">
-        <v>90.82757324515211</v>
+        <v>90.827573245152109</v>
       </c>
       <c r="J6">
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>90.82757324515211</v>
+        <v>90.827573245152109</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -986,43 +1075,43 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>112.3187807082082</v>
+        <v>112.31878070820819</v>
       </c>
       <c r="P6">
-        <v>21.49120746305604</v>
+        <v>21.491207463056039</v>
       </c>
       <c r="Q6">
         <v>1.653697188418555</v>
       </c>
       <c r="R6">
-        <v>55.28762388777649</v>
+        <v>55.287623887776491</v>
       </c>
       <c r="S6">
-        <v>5.226266644221232</v>
+        <v>5.2262666442212318</v>
       </c>
       <c r="T6">
-        <v>5.226266644221232</v>
+        <v>5.2262666442212318</v>
       </c>
       <c r="U6">
         <v>1.653697188418555</v>
       </c>
       <c r="V6">
-        <v>55.28762388777649</v>
+        <v>55.287623887776491</v>
       </c>
       <c r="W6">
-        <v>123.8100546045603</v>
+        <v>123.81005460456031</v>
       </c>
       <c r="X6">
         <v>214.6376278497124</v>
       </c>
       <c r="Y6">
-        <v>123.8100546045603</v>
+        <v>123.81005460456031</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,16 +1134,16 @@
         <v>112.6385551603754</v>
       </c>
       <c r="H7">
-        <v>14.98075660461659</v>
+        <v>14.980756604616589</v>
       </c>
       <c r="I7">
-        <v>97.65779855575883</v>
+        <v>97.657798555758831</v>
       </c>
       <c r="J7">
         <v>0.2</v>
       </c>
       <c r="K7">
-        <v>97.65779855575883</v>
+        <v>97.657798555758831</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1069,31 +1158,31 @@
         <v>112.6385551603755</v>
       </c>
       <c r="P7">
-        <v>14.98075660461659</v>
+        <v>14.980756604616589</v>
       </c>
       <c r="Q7">
-        <v>2.017417580806226</v>
+        <v>2.0174175808062258</v>
       </c>
       <c r="R7">
-        <v>67.43535680782635</v>
+        <v>67.435356807826352</v>
       </c>
       <c r="S7">
-        <v>7.518882933166662</v>
+        <v>7.5188829331666618</v>
       </c>
       <c r="T7">
         <v>7.51888293316666</v>
       </c>
       <c r="U7">
-        <v>2.017417580806226</v>
+        <v>2.0174175808062258</v>
       </c>
       <c r="V7">
-        <v>67.43535680782634</v>
+        <v>67.435356807826338</v>
       </c>
       <c r="W7">
         <v>83.54681543790781</v>
       </c>
       <c r="X7">
-        <v>181.2046139936666</v>
+        <v>181.20461399366661</v>
       </c>
       <c r="Y7">
         <v>83.54681543790781</v>
@@ -1102,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1155,7 +1244,7 @@
         <v>1.933714707870658</v>
       </c>
       <c r="R8">
-        <v>56.23493829196676</v>
+        <v>56.234938291966763</v>
       </c>
       <c r="S8">
         <v>6.91515035277801</v>
@@ -1167,7 +1256,7 @@
         <v>1.933714707870658</v>
       </c>
       <c r="V8">
-        <v>56.23493829196676</v>
+        <v>56.234938291966763</v>
       </c>
       <c r="W8">
         <v>103.3846823790994</v>
@@ -1182,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>103.3046098841376</v>
+        <v>103.30460988413761</v>
       </c>
       <c r="H9">
         <v>13.84988146893917</v>
       </c>
       <c r="I9">
-        <v>89.45472841519845</v>
+        <v>89.454728415198446</v>
       </c>
       <c r="J9">
         <v>0.2</v>
       </c>
       <c r="K9">
-        <v>89.45472841519845</v>
+        <v>89.454728415198446</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1226,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>103.3046098841376</v>
+        <v>103.30460988413761</v>
       </c>
       <c r="P9">
         <v>13.84988146893917</v>
@@ -1235,34 +1324,34 @@
         <v>2.009405326910005</v>
       </c>
       <c r="R9">
-        <v>61.62470281443991</v>
+        <v>61.624702814439907</v>
       </c>
       <c r="S9">
-        <v>7.45888043271826</v>
+        <v>7.4588804327182601</v>
       </c>
       <c r="T9">
-        <v>7.45888043271826</v>
+        <v>7.4588804327182601</v>
       </c>
       <c r="U9">
         <v>2.009405326910005</v>
       </c>
       <c r="V9">
-        <v>61.62470281443991</v>
+        <v>61.624702814439907</v>
       </c>
       <c r="W9">
-        <v>122.1483899606418</v>
+        <v>122.14838996064179</v>
       </c>
       <c r="X9">
-        <v>211.6031183758402</v>
+        <v>211.60311837584021</v>
       </c>
       <c r="Y9">
-        <v>122.1483899606418</v>
+        <v>122.14838996064179</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1285,16 +1374,16 @@
         <v>86.12091719127389</v>
       </c>
       <c r="H10">
-        <v>16.20034274879639</v>
+        <v>16.200342748796391</v>
       </c>
       <c r="I10">
-        <v>69.92057444247749</v>
+        <v>69.920574442477488</v>
       </c>
       <c r="J10">
         <v>0.2</v>
       </c>
       <c r="K10">
-        <v>69.92057444247749</v>
+        <v>69.920574442477488</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1309,40 +1398,40 @@
         <v>86.12091719127389</v>
       </c>
       <c r="P10">
-        <v>16.20034274879639</v>
+        <v>16.200342748796391</v>
       </c>
       <c r="Q10">
         <v>1.670719923245946</v>
       </c>
       <c r="R10">
-        <v>42.85433904865035</v>
+        <v>42.854339048650353</v>
       </c>
       <c r="S10">
-        <v>5.315993527215481</v>
+        <v>5.3159935272154808</v>
       </c>
       <c r="T10">
-        <v>5.315993527215481</v>
+        <v>5.3159935272154808</v>
       </c>
       <c r="U10">
         <v>1.670719923245946</v>
       </c>
       <c r="V10">
-        <v>42.85433904865035</v>
+        <v>42.854339048650353</v>
       </c>
       <c r="W10">
-        <v>157.1816400222777</v>
+        <v>157.18164002227769</v>
       </c>
       <c r="X10">
-        <v>227.1022144647552</v>
+        <v>227.10221446475521</v>
       </c>
       <c r="Y10">
-        <v>157.1816400222777</v>
+        <v>157.18164002227769</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>118.3036895832497</v>
+        <v>118.30368958324971</v>
       </c>
       <c r="H11">
-        <v>19.32578297676005</v>
+        <v>19.325782976760049</v>
       </c>
       <c r="I11">
         <v>98.97790660648964</v>
@@ -1374,7 +1463,7 @@
         <v>0.2</v>
       </c>
       <c r="K11">
-        <v>98.97790660648965</v>
+        <v>98.977906606489654</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1383,37 +1472,37 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O11">
-        <v>118.3036895832497</v>
+        <v>118.30368958324971</v>
       </c>
       <c r="P11">
-        <v>19.32578297676005</v>
+        <v>19.325782976760049</v>
       </c>
       <c r="Q11">
         <v>1.811814848945642</v>
       </c>
       <c r="R11">
-        <v>63.96316604169485</v>
+        <v>63.963166041694848</v>
       </c>
       <c r="S11">
-        <v>6.121547040319873</v>
+        <v>6.1215470403198733</v>
       </c>
       <c r="T11">
-        <v>6.121547040319873</v>
+        <v>6.1215470403198733</v>
       </c>
       <c r="U11">
         <v>1.811814848945642</v>
       </c>
       <c r="V11">
-        <v>63.96316604169485</v>
+        <v>63.963166041694848</v>
       </c>
       <c r="W11">
         <v>125.7760109295761</v>
       </c>
       <c r="X11">
-        <v>224.7539175360658</v>
+        <v>224.75391753606581</v>
       </c>
       <c r="Y11">
         <v>125.7760109295761</v>
@@ -1422,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1454,7 +1543,7 @@
         <v>0.2</v>
       </c>
       <c r="K12">
-        <v>87.0950948812872</v>
+        <v>87.095094881287196</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1475,10 +1564,10 @@
         <v>1.911071934663561</v>
       </c>
       <c r="R12">
-        <v>58.20005819132635</v>
+        <v>58.200058191326349</v>
       </c>
       <c r="S12">
-        <v>6.760331549685027</v>
+        <v>6.7603315496850271</v>
       </c>
       <c r="T12">
         <v>6.760331549685028</v>
@@ -1487,7 +1576,7 @@
         <v>1.911071934663561</v>
       </c>
       <c r="V12">
-        <v>58.20005819132636</v>
+        <v>58.200058191326363</v>
       </c>
       <c r="W12">
         <v>106.9258277057898</v>
@@ -1499,10 +1588,10 @@
         <v>106.9258277057898</v>
       </c>
       <c r="Z12">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1552,22 +1641,22 @@
         <v>10.90237056035765</v>
       </c>
       <c r="Q13">
-        <v>2.32021194473774</v>
+        <v>2.3202119447377401</v>
       </c>
       <c r="R13">
-        <v>74.76430644908498</v>
+        <v>74.764306449084984</v>
       </c>
       <c r="S13">
-        <v>10.17783121526016</v>
+        <v>10.177831215260159</v>
       </c>
       <c r="T13">
-        <v>10.17783121526016</v>
+        <v>10.177831215260159</v>
       </c>
       <c r="U13">
-        <v>2.32021194473774</v>
+        <v>2.3202119447377401</v>
       </c>
       <c r="V13">
-        <v>74.76430644908498</v>
+        <v>74.764306449084984</v>
       </c>
       <c r="W13">
         <v>123.0793240782349</v>
@@ -1582,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>111.9638417557964</v>
+        <v>111.96384175579639</v>
       </c>
       <c r="H14">
-        <v>20.01193115899853</v>
+        <v>20.011931158998529</v>
       </c>
       <c r="I14">
-        <v>91.95191059679784</v>
+        <v>91.951910596797845</v>
       </c>
       <c r="J14">
         <v>0.2</v>
       </c>
       <c r="K14">
-        <v>91.95191059679786</v>
+        <v>91.951910596797859</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1623,46 +1712,46 @@
         <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O14">
-        <v>111.9638417557964</v>
+        <v>111.96384175579639</v>
       </c>
       <c r="P14">
-        <v>20.01193115899853</v>
+        <v>20.011931158998529</v>
       </c>
       <c r="Q14">
-        <v>1.721847324070506</v>
+        <v>1.7218473240705059</v>
       </c>
       <c r="R14">
-        <v>57.49442048119305</v>
+        <v>57.494420481193053</v>
       </c>
       <c r="S14">
-        <v>5.594854432899191</v>
+        <v>5.5948544328991909</v>
       </c>
       <c r="T14">
-        <v>5.594854432899191</v>
+        <v>5.5948544328991909</v>
       </c>
       <c r="U14">
-        <v>1.721847324070506</v>
+        <v>1.7218473240705059</v>
       </c>
       <c r="V14">
-        <v>57.49442048119305</v>
+        <v>57.494420481193053</v>
       </c>
       <c r="W14">
-        <v>110.5295151034853</v>
+        <v>110.52951510348529</v>
       </c>
       <c r="X14">
-        <v>202.4814257002832</v>
+        <v>202.48142570028321</v>
       </c>
       <c r="Y14">
-        <v>110.5295151034853</v>
+        <v>110.52951510348529</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1685,16 +1774,16 @@
         <v>126.0864715853744</v>
       </c>
       <c r="H15">
-        <v>16.0005436368483</v>
+        <v>16.000543636848299</v>
       </c>
       <c r="I15">
-        <v>110.0859279485261</v>
+        <v>110.08592794852611</v>
       </c>
       <c r="J15">
         <v>0.2</v>
       </c>
       <c r="K15">
-        <v>110.0859279485261</v>
+        <v>110.08592794852611</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1703,46 +1792,46 @@
         <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O15">
         <v>126.0864715853744</v>
       </c>
       <c r="P15">
-        <v>16.0005436368483</v>
+        <v>16.000543636848299</v>
       </c>
       <c r="Q15">
-        <v>2.064345255025404</v>
+        <v>2.0643452550254038</v>
       </c>
       <c r="R15">
         <v>77.05528161397136</v>
       </c>
       <c r="S15">
-        <v>7.880136728292451</v>
+        <v>7.8801367282924506</v>
       </c>
       <c r="T15">
-        <v>7.880136728292451</v>
+        <v>7.8801367282924506</v>
       </c>
       <c r="U15">
-        <v>2.064345255025404</v>
+        <v>2.0643452550254038</v>
       </c>
       <c r="V15">
         <v>77.05528161397136</v>
       </c>
       <c r="W15">
-        <v>108.421322891333</v>
+        <v>108.42132289133301</v>
       </c>
       <c r="X15">
         <v>218.5072508398591</v>
       </c>
       <c r="Y15">
-        <v>108.421322891333</v>
+        <v>108.42132289133301</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>78.01472478096291</v>
+        <v>78.014724780962908</v>
       </c>
       <c r="H16">
-        <v>23.51964505266927</v>
+        <v>23.519645052669269</v>
       </c>
       <c r="I16">
-        <v>54.49507972829365</v>
+        <v>54.495079728293653</v>
       </c>
       <c r="J16">
         <v>0.2</v>
       </c>
       <c r="K16">
-        <v>54.49507972829365</v>
+        <v>54.495079728293653</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1786,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>78.01472478096291</v>
+        <v>78.014724780962908</v>
       </c>
       <c r="P16">
-        <v>23.51964505266927</v>
+        <v>23.519645052669269</v>
       </c>
       <c r="Q16">
         <v>1.199061556497671</v>
@@ -1798,10 +1887,10 @@
         <v>26.29357752316729</v>
       </c>
       <c r="S16">
-        <v>3.317002642100202</v>
+        <v>3.3170026421002019</v>
       </c>
       <c r="T16">
-        <v>3.317002642100202</v>
+        <v>3.3170026421002019</v>
       </c>
       <c r="U16">
         <v>1.199061556497671</v>
@@ -1810,19 +1899,19 @@
         <v>26.29357752316729</v>
       </c>
       <c r="W16">
-        <v>148.3308520250202</v>
+        <v>148.33085202502019</v>
       </c>
       <c r="X16">
         <v>202.8259317533138</v>
       </c>
       <c r="Y16">
-        <v>148.3308520250202</v>
+        <v>148.33085202502019</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,16 +1934,16 @@
         <v>123.7590683464463</v>
       </c>
       <c r="H17">
-        <v>29.99028458588825</v>
+        <v>29.990284585888251</v>
       </c>
       <c r="I17">
-        <v>93.76878376055805</v>
+        <v>93.768783760558051</v>
       </c>
       <c r="J17">
         <v>0.2</v>
       </c>
       <c r="K17">
-        <v>93.76878376055804</v>
+        <v>93.768783760558037</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1869,40 +1958,40 @@
         <v>123.7590683464463</v>
       </c>
       <c r="P17">
-        <v>29.99028458588825</v>
+        <v>29.990284585888251</v>
       </c>
       <c r="Q17">
         <v>1.417463196255937</v>
       </c>
       <c r="R17">
-        <v>51.25865911481972</v>
+        <v>51.258659114819721</v>
       </c>
       <c r="S17">
-        <v>4.126638678336531</v>
+        <v>4.1266386783365308</v>
       </c>
       <c r="T17">
-        <v>4.126638678336531</v>
+        <v>4.1266386783365308</v>
       </c>
       <c r="U17">
         <v>1.417463196255937</v>
       </c>
       <c r="V17">
-        <v>51.25865911481972</v>
+        <v>51.258659114819721</v>
       </c>
       <c r="W17">
         <v>116.2274471941365</v>
       </c>
       <c r="X17">
-        <v>209.9962309546945</v>
+        <v>209.99623095469451</v>
       </c>
       <c r="Y17">
         <v>116.2274471941365</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1925,16 +2014,16 @@
         <v>103.1227506607197</v>
       </c>
       <c r="H18">
-        <v>28.58073967452355</v>
+        <v>28.580739674523549</v>
       </c>
       <c r="I18">
-        <v>74.54201098619615</v>
+        <v>74.542010986196146</v>
       </c>
       <c r="J18">
         <v>0.2</v>
       </c>
       <c r="K18">
-        <v>74.54201098619613</v>
+        <v>74.542010986196132</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1949,40 +2038,40 @@
         <v>103.1227506607197</v>
       </c>
       <c r="P18">
-        <v>28.58073967452355</v>
+        <v>28.580739674523549</v>
       </c>
       <c r="Q18">
-        <v>1.283186979631236</v>
+        <v>1.2831869796312361</v>
       </c>
       <c r="R18">
-        <v>37.86757796761763</v>
+        <v>37.867577967617628</v>
       </c>
       <c r="S18">
-        <v>3.608120427780313</v>
+        <v>3.6081204277803129</v>
       </c>
       <c r="T18">
-        <v>3.608120427780313</v>
+        <v>3.6081204277803129</v>
       </c>
       <c r="U18">
-        <v>1.283186979631236</v>
+        <v>1.2831869796312361</v>
       </c>
       <c r="V18">
-        <v>37.86757796761763</v>
+        <v>37.867577967617628</v>
       </c>
       <c r="W18">
-        <v>99.43411544182092</v>
+        <v>99.434115441820921</v>
       </c>
       <c r="X18">
         <v>173.9761264280171</v>
       </c>
       <c r="Y18">
-        <v>99.43411544182094</v>
+        <v>99.434115441820936</v>
       </c>
       <c r="Z18">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,10 +2091,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>109.0702324053131</v>
+        <v>109.07023240531311</v>
       </c>
       <c r="H19">
-        <v>9.281054715195712</v>
+        <v>9.2810547151957117</v>
       </c>
       <c r="I19">
         <v>99.78917769011737</v>
@@ -2014,7 +2103,7 @@
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>99.78917769011736</v>
+        <v>99.789177690117356</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2026,13 +2115,13 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>109.0702324053131</v>
+        <v>109.07023240531311</v>
       </c>
       <c r="P19">
-        <v>9.281054715195712</v>
+        <v>9.2810547151957117</v>
       </c>
       <c r="Q19">
-        <v>2.464016813734201</v>
+        <v>2.4640168137342009</v>
       </c>
       <c r="R19">
         <v>76.92050282268805</v>
@@ -2044,7 +2133,7 @@
         <v>11.75192214164348</v>
       </c>
       <c r="U19">
-        <v>2.464016813734201</v>
+        <v>2.4640168137342009</v>
       </c>
       <c r="V19">
         <v>76.92050282268805</v>
@@ -2053,16 +2142,16 @@
         <v>108.8990122668059</v>
       </c>
       <c r="X19">
-        <v>208.6881899569233</v>
+        <v>208.68818995692331</v>
       </c>
       <c r="Y19">
         <v>108.899012266806</v>
       </c>
       <c r="Z19">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2088,13 +2177,13 @@
         <v>15.71998121230267</v>
       </c>
       <c r="I20">
-        <v>86.30423040620146</v>
+        <v>86.304230406201455</v>
       </c>
       <c r="J20">
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>86.30423040620146</v>
+        <v>86.304230406201455</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2112,28 +2201,28 @@
         <v>15.71998121230267</v>
       </c>
       <c r="Q20">
-        <v>1.870277562071411</v>
+        <v>1.8702775620714109</v>
       </c>
       <c r="R20">
-        <v>56.90350226864763</v>
+        <v>56.903502268647628</v>
       </c>
       <c r="S20">
-        <v>6.490097554229808</v>
+        <v>6.4900975542298083</v>
       </c>
       <c r="T20">
-        <v>6.490097554229808</v>
+        <v>6.4900975542298083</v>
       </c>
       <c r="U20">
-        <v>1.870277562071411</v>
+        <v>1.8702775620714109</v>
       </c>
       <c r="V20">
-        <v>56.90350226864763</v>
+        <v>56.903502268647628</v>
       </c>
       <c r="W20">
         <v>107.5712419625543</v>
       </c>
       <c r="X20">
-        <v>193.8754723687557</v>
+        <v>193.87547236875571</v>
       </c>
       <c r="Y20">
         <v>107.5712419625543</v>
@@ -2142,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>107.4726785252412</v>
+        <v>107.47267852524119</v>
       </c>
       <c r="H21">
-        <v>27.04906243799313</v>
+        <v>27.049062437993129</v>
       </c>
       <c r="I21">
-        <v>80.42361608724804</v>
+        <v>80.423616087248035</v>
       </c>
       <c r="J21">
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>80.42361608724802</v>
+        <v>80.423616087248021</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2186,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>107.4726785252412</v>
+        <v>107.47267852524119</v>
       </c>
       <c r="P21">
-        <v>27.04906243799313</v>
+        <v>27.049062437993129</v>
       </c>
       <c r="Q21">
         <v>1.379584317652899</v>
@@ -2198,10 +2287,10 @@
         <v>43.10715374057861</v>
       </c>
       <c r="S21">
-        <v>3.973249674424389</v>
+        <v>3.9732496744243888</v>
       </c>
       <c r="T21">
-        <v>3.973249674424389</v>
+        <v>3.9732496744243888</v>
       </c>
       <c r="U21">
         <v>1.379584317652899</v>
@@ -2210,19 +2299,19 @@
         <v>43.10715374057861</v>
       </c>
       <c r="W21">
-        <v>107.2276236850903</v>
+        <v>107.22762368509029</v>
       </c>
       <c r="X21">
         <v>187.6512397723383</v>
       </c>
       <c r="Y21">
-        <v>107.2276236850903</v>
+        <v>107.22762368509029</v>
       </c>
       <c r="Z21">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>134.7001138816721</v>
+        <v>134.70011388167211</v>
       </c>
       <c r="H22">
         <v>9.683199901926475</v>
@@ -2263,19 +2352,19 @@
         <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O22">
-        <v>134.7001138816721</v>
+        <v>134.70011388167211</v>
       </c>
       <c r="P22">
         <v>9.683199901926475</v>
       </c>
       <c r="Q22">
-        <v>2.632658513819042</v>
+        <v>2.6326585138190421</v>
       </c>
       <c r="R22">
-        <v>99.52435531692714</v>
+        <v>99.524355316927142</v>
       </c>
       <c r="S22">
         <v>13.91070258240496</v>
@@ -2284,25 +2373,25 @@
         <v>13.91070258240496</v>
       </c>
       <c r="U22">
-        <v>2.632658513819042</v>
+        <v>2.6326585138190421</v>
       </c>
       <c r="V22">
-        <v>99.52435531692714</v>
+        <v>99.524355316927142</v>
       </c>
       <c r="W22">
-        <v>121.5941556143248</v>
+        <v>121.59415561432481</v>
       </c>
       <c r="X22">
-        <v>246.6110695940704</v>
+        <v>246.61106959407039</v>
       </c>
       <c r="Y22">
-        <v>121.5941556143248</v>
+        <v>121.59415561432481</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>113.8065477726471</v>
+        <v>113.80654777264709</v>
       </c>
       <c r="H23">
         <v>10.00845735233143</v>
@@ -2346,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>113.8065477726471</v>
+        <v>113.80654777264709</v>
       </c>
       <c r="P23">
         <v>10.00845735233143</v>
@@ -2355,34 +2444,34 @@
         <v>2.431069586787578</v>
       </c>
       <c r="R23">
-        <v>79.46683414040224</v>
+        <v>79.466834140402241</v>
       </c>
       <c r="S23">
-        <v>11.37103788988384</v>
+        <v>11.371037889883841</v>
       </c>
       <c r="T23">
-        <v>11.37103788988384</v>
+        <v>11.371037889883841</v>
       </c>
       <c r="U23">
         <v>2.431069586787578</v>
       </c>
       <c r="V23">
-        <v>79.46683414040224</v>
+        <v>79.466834140402241</v>
       </c>
       <c r="W23">
-        <v>94.14637764074756</v>
+        <v>94.146377640747559</v>
       </c>
       <c r="X23">
         <v>197.9444680610633</v>
       </c>
       <c r="Y23">
-        <v>94.14637764074756</v>
+        <v>94.146377640747559</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2405,16 +2494,16 @@
         <v>121.1191478360183</v>
       </c>
       <c r="H24">
-        <v>10.31832738991331</v>
+        <v>10.318327389913311</v>
       </c>
       <c r="I24">
-        <v>110.800820446105</v>
+        <v>110.80082044610501</v>
       </c>
       <c r="J24">
         <v>0.2</v>
       </c>
       <c r="K24">
-        <v>110.800820446105</v>
+        <v>110.80082044610501</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2429,13 +2518,13 @@
         <v>121.1191478360183</v>
       </c>
       <c r="P24">
-        <v>10.31832738991331</v>
+        <v>10.318327389913311</v>
       </c>
       <c r="Q24">
         <v>2.462853081667304</v>
       </c>
       <c r="R24">
-        <v>85.38829603620488</v>
+        <v>85.388296036204878</v>
       </c>
       <c r="S24">
         <v>11.73825400756507</v>
@@ -2447,13 +2536,13 @@
         <v>2.462853081667304</v>
       </c>
       <c r="V24">
-        <v>85.38829603620488</v>
+        <v>85.388296036204878</v>
       </c>
       <c r="W24">
         <v>64.7440054827686</v>
       </c>
       <c r="X24">
-        <v>175.5448259288736</v>
+        <v>175.54482592887359</v>
       </c>
       <c r="Y24">
         <v>64.7440054827686</v>
@@ -2462,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>70.52874397465442</v>
+        <v>70.528743974654418</v>
       </c>
       <c r="H25">
-        <v>21.8971839313573</v>
+        <v>21.897183931357301</v>
       </c>
       <c r="I25">
-        <v>48.63156004329711</v>
+        <v>48.631560043297107</v>
       </c>
       <c r="J25">
         <v>0.2</v>
       </c>
       <c r="K25">
-        <v>48.63156004329711</v>
+        <v>48.631560043297107</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2506,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>70.52874397465442</v>
+        <v>70.528743974654418</v>
       </c>
       <c r="P25">
-        <v>21.8971839313573</v>
+        <v>21.897183931357301</v>
       </c>
       <c r="Q25">
         <v>1.1696623017321</v>
@@ -2518,10 +2607,10 @@
         <v>23.01924948469458</v>
       </c>
       <c r="S25">
-        <v>3.220904760892816</v>
+        <v>3.2209047608928159</v>
       </c>
       <c r="T25">
-        <v>3.220904760892816</v>
+        <v>3.2209047608928159</v>
       </c>
       <c r="U25">
         <v>1.1696623017321</v>
@@ -2536,13 +2625,13 @@
         <v>134.1079404916137</v>
       </c>
       <c r="Y25">
-        <v>85.4763804483166</v>
+        <v>85.476380448316604</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,10 +2651,10 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>163.5191011144296</v>
+        <v>163.51910111442959</v>
       </c>
       <c r="H26">
-        <v>15.1607784918928</v>
+        <v>15.160778491892801</v>
       </c>
       <c r="I26">
         <v>148.3583226225368</v>
@@ -2586,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>163.5191011144296</v>
+        <v>163.51910111442959</v>
       </c>
       <c r="P26">
-        <v>15.1607784918928</v>
+        <v>15.160778491892801</v>
       </c>
       <c r="Q26">
         <v>2.378218079297846</v>
@@ -2598,10 +2687,10 @@
         <v>112.3026851168874</v>
       </c>
       <c r="S26">
-        <v>10.7856665277361</v>
+        <v>10.785666527736099</v>
       </c>
       <c r="T26">
-        <v>10.7856665277361</v>
+        <v>10.785666527736099</v>
       </c>
       <c r="U26">
         <v>2.378218079297846</v>
@@ -2613,7 +2702,7 @@
         <v>114.2022720360484</v>
       </c>
       <c r="X26">
-        <v>262.5605946585853</v>
+        <v>262.56059465858527</v>
       </c>
       <c r="Y26">
         <v>114.2022720360484</v>
@@ -2622,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2645,16 +2734,16 @@
         <v>106.3112616911705</v>
       </c>
       <c r="H27">
-        <v>6.45219848385107</v>
+        <v>6.4521984838510704</v>
       </c>
       <c r="I27">
-        <v>99.85906320731942</v>
+        <v>99.859063207319423</v>
       </c>
       <c r="J27">
         <v>0.2</v>
       </c>
       <c r="K27">
-        <v>99.85906320731942</v>
+        <v>99.859063207319423</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2669,31 +2758,31 @@
         <v>106.3112616911705</v>
       </c>
       <c r="P27">
-        <v>6.45219848385107</v>
+        <v>6.4521984838510704</v>
       </c>
       <c r="Q27">
         <v>2.801950299327653</v>
       </c>
       <c r="R27">
-        <v>81.78032373417149</v>
+        <v>81.780323734171489</v>
       </c>
       <c r="S27">
-        <v>16.47675004996396</v>
+        <v>16.476750049963961</v>
       </c>
       <c r="T27">
-        <v>16.47675004996396</v>
+        <v>16.476750049963961</v>
       </c>
       <c r="U27">
         <v>2.801950299327653</v>
       </c>
       <c r="V27">
-        <v>81.78032373417149</v>
+        <v>81.780323734171489</v>
       </c>
       <c r="W27">
         <v>83.47699170675773</v>
       </c>
       <c r="X27">
-        <v>183.3360549140772</v>
+        <v>183.33605491407721</v>
       </c>
       <c r="Y27">
         <v>83.47699170675773</v>
@@ -2702,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2811,19 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>126.7858631434248</v>
+        <v>126.78586314342481</v>
       </c>
       <c r="H28">
-        <v>22.57510999659035</v>
+        <v>22.575109996590349</v>
       </c>
       <c r="I28">
-        <v>104.2107531468344</v>
+        <v>104.21075314683441</v>
       </c>
       <c r="J28">
         <v>0.2</v>
       </c>
       <c r="K28">
-        <v>104.2107531468344</v>
+        <v>104.21075314683441</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2746,43 +2835,43 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>126.7858631434248</v>
+        <v>126.78586314342481</v>
       </c>
       <c r="P28">
-        <v>22.57510999659035</v>
+        <v>22.575109996590349</v>
       </c>
       <c r="Q28">
         <v>1.725651574595678</v>
       </c>
       <c r="R28">
-        <v>65.25397903454767</v>
+        <v>65.253979034547669</v>
       </c>
       <c r="S28">
-        <v>5.616179197468982</v>
+        <v>5.6161791974689823</v>
       </c>
       <c r="T28">
-        <v>5.616179197468982</v>
+        <v>5.6161791974689823</v>
       </c>
       <c r="U28">
         <v>1.725651574595678</v>
       </c>
       <c r="V28">
-        <v>65.25397903454767</v>
+        <v>65.253979034547669</v>
       </c>
       <c r="W28">
-        <v>88.97457746961665</v>
+        <v>88.974577469616648</v>
       </c>
       <c r="X28">
         <v>193.1853306164511</v>
       </c>
       <c r="Y28">
-        <v>88.97457746961666</v>
+        <v>88.974577469616662</v>
       </c>
       <c r="Z28">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2805,7 +2894,7 @@
         <v>115.8993215835515</v>
       </c>
       <c r="H29">
-        <v>9.951842353798067</v>
+        <v>9.9518423537980674</v>
       </c>
       <c r="I29">
         <v>105.9474792297534</v>
@@ -2829,13 +2918,13 @@
         <v>115.8993215835515</v>
       </c>
       <c r="P29">
-        <v>9.951842353798067</v>
+        <v>9.9518423537980674</v>
       </c>
       <c r="Q29">
-        <v>2.454964201648805</v>
+        <v>2.4549642016488051</v>
       </c>
       <c r="R29">
-        <v>81.51606251072675</v>
+        <v>81.516062510726755</v>
       </c>
       <c r="S29">
         <v>11.64601663322361</v>
@@ -2844,25 +2933,25 @@
         <v>11.64601663322361</v>
       </c>
       <c r="U29">
-        <v>2.454964201648805</v>
+        <v>2.4549642016488051</v>
       </c>
       <c r="V29">
-        <v>81.51606251072675</v>
+        <v>81.516062510726755</v>
       </c>
       <c r="W29">
-        <v>111.6671622066956</v>
+        <v>111.66716220669559</v>
       </c>
       <c r="X29">
-        <v>217.614641436449</v>
+        <v>217.61464143644901</v>
       </c>
       <c r="Y29">
-        <v>111.6671622066957</v>
+        <v>111.66716220669571</v>
       </c>
       <c r="Z29">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2885,16 +2974,16 @@
         <v>124.677732651442</v>
       </c>
       <c r="H30">
-        <v>33.65543646728038</v>
+        <v>33.655436467280381</v>
       </c>
       <c r="I30">
-        <v>91.0222961841616</v>
+        <v>91.022296184161604</v>
       </c>
       <c r="J30">
         <v>0.2</v>
       </c>
       <c r="K30">
-        <v>91.02229618416158</v>
+        <v>91.022296184161576</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2909,40 +2998,40 @@
         <v>124.677732651442</v>
       </c>
       <c r="P30">
-        <v>33.65543646728038</v>
+        <v>33.655436467280381</v>
       </c>
       <c r="Q30">
-        <v>1.30955766714343</v>
+        <v>1.3095576671434299</v>
       </c>
       <c r="R30">
-        <v>46.94856131737598</v>
+        <v>46.948561317375983</v>
       </c>
       <c r="S30">
-        <v>3.704534712323608</v>
+        <v>3.7045347123236079</v>
       </c>
       <c r="T30">
-        <v>3.704534712323608</v>
+        <v>3.7045347123236079</v>
       </c>
       <c r="U30">
-        <v>1.30955766714343</v>
+        <v>1.3095576671434299</v>
       </c>
       <c r="V30">
-        <v>46.94856131737598</v>
+        <v>46.948561317375983</v>
       </c>
       <c r="W30">
         <v>108.7210201006218</v>
       </c>
       <c r="X30">
-        <v>199.7433162847834</v>
+        <v>199.74331628478339</v>
       </c>
       <c r="Y30">
         <v>108.7210201006219</v>
       </c>
       <c r="Z30">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>148.9131615092028</v>
+        <v>148.91316150920281</v>
       </c>
       <c r="H31">
-        <v>14.87978656831971</v>
+        <v>14.879786568319711</v>
       </c>
       <c r="I31">
-        <v>134.033374940883</v>
+        <v>134.03337494088299</v>
       </c>
       <c r="J31">
         <v>0.2</v>
       </c>
       <c r="K31">
-        <v>134.033374940883</v>
+        <v>134.03337494088299</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2986,16 +3075,16 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>148.9131615092028</v>
+        <v>148.91316150920281</v>
       </c>
       <c r="P31">
-        <v>14.87978656831971</v>
+        <v>14.879786568319711</v>
       </c>
       <c r="Q31">
-        <v>2.303359641608231</v>
+        <v>2.3033596416082309</v>
       </c>
       <c r="R31">
-        <v>99.7598750836712</v>
+        <v>99.759875083671204</v>
       </c>
       <c r="S31">
         <v>10.00774848654423</v>
@@ -3004,25 +3093,68 @@
         <v>10.00774848654423</v>
       </c>
       <c r="U31">
-        <v>2.303359641608231</v>
+        <v>2.3033596416082309</v>
       </c>
       <c r="V31">
-        <v>99.7598750836712</v>
+        <v>99.759875083671204</v>
       </c>
       <c r="W31">
-        <v>76.10313112416156</v>
+        <v>76.103131124161564</v>
       </c>
       <c r="X31">
-        <v>210.1365060650446</v>
+        <v>210.13650606504461</v>
       </c>
       <c r="Y31">
-        <v>76.10313112416156</v>
+        <v>76.103131124161564</v>
       </c>
       <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.20000000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>